--- a/data/PlantGrowth_6_2024_U.xlsx
+++ b/data/PlantGrowth_6_2024_U.xlsx
@@ -2048,7 +2048,7 @@
         <v/>
       </c>
       <c r="O8" s="1" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="P8" s="1" t="n">
         <v/>
@@ -2060,7 +2060,7 @@
         <v/>
       </c>
       <c r="S8" s="1" t="n">
-        <v/>
+        <v>4</v>
       </c>
       <c r="T8" s="1" t="n">
         <v/>
@@ -2069,7 +2069,7 @@
         <v/>
       </c>
       <c r="V8" s="1" t="n">
-        <v/>
+        <v>20.8</v>
       </c>
       <c r="W8" s="1" t="n">
         <v/>
@@ -2090,10 +2090,10 @@
         <v/>
       </c>
       <c r="AC8" s="1" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="AD8" s="1" t="n">
-        <v/>
+        <v>12.8</v>
       </c>
       <c r="AE8" s="1" t="n">
         <v/>
@@ -2153,13 +2153,13 @@
         <v/>
       </c>
       <c r="AX8" s="1" t="n">
-        <v/>
+        <v>4</v>
       </c>
       <c r="AY8" s="1" t="n">
-        <v/>
+        <v>3</v>
       </c>
       <c r="AZ8" s="1" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="BA8" s="1" t="n">
         <v/>
@@ -2168,7 +2168,7 @@
         <v/>
       </c>
       <c r="BC8" s="1" t="n">
-        <v/>
+        <v>26</v>
       </c>
       <c r="BD8" s="1" t="n">
         <v/>
@@ -2180,10 +2180,10 @@
         <v/>
       </c>
       <c r="BG8" s="1" t="n">
-        <v/>
+        <v>12.4</v>
       </c>
       <c r="BH8" s="1" t="n">
-        <v/>
+        <v>6.5</v>
       </c>
       <c r="BI8" s="1" t="n"/>
       <c r="BJ8" s="1" t="n"/>
